--- a/src/main/resource/resource/ItemResource.xlsx
+++ b/src/main/resource/resource/ItemResource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOLO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A03339-A51F-4E73-8E73-E49C2DA07BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFFD7E-26D6-471C-8A8E-63C2C078C011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="16500" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>ItemResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,7 +95,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>最大叠加数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxAddition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复血量250，持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_HP:250:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚天剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠龙刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离别钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽泉头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天玄头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵战衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神武战袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂魔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天玄靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽泉靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵道靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,26 +509,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -456,8 +545,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -473,8 +565,11 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -490,8 +585,11 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -507,11 +605,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -526,6 +624,272 @@
       </c>
       <c r="F6" t="s">
         <v>16</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>1001</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1002</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>1003</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>1004</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1005</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>1006</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>1007</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>1008</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>1009</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>1010</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>1011</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>1012</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
